--- a/data/pca/factorExposure/factorExposure_2009-11-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-11-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.007514293236140995</v>
+        <v>0.01663071280079961</v>
       </c>
       <c r="C2">
-        <v>0.003637162618397831</v>
+        <v>0.0009493164127063567</v>
       </c>
       <c r="D2">
-        <v>-0.00782836391461247</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.008683831812157173</v>
+      </c>
+      <c r="E2">
+        <v>-0.0013522340599156</v>
+      </c>
+      <c r="F2">
+        <v>-0.01173537012446463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08821663733352872</v>
+        <v>0.09399244017351584</v>
       </c>
       <c r="C4">
-        <v>0.06217376376602006</v>
+        <v>0.01502789546996311</v>
       </c>
       <c r="D4">
-        <v>-0.04813895738000329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08465719473279026</v>
+      </c>
+      <c r="E4">
+        <v>-0.02842088564097839</v>
+      </c>
+      <c r="F4">
+        <v>0.03150322758729127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1155356798228749</v>
+        <v>0.1579781080248659</v>
       </c>
       <c r="C6">
-        <v>0.07757918041955847</v>
+        <v>0.0257517160526854</v>
       </c>
       <c r="D6">
-        <v>0.03967051926429626</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02150431892239596</v>
+      </c>
+      <c r="E6">
+        <v>-0.0116847111280584</v>
+      </c>
+      <c r="F6">
+        <v>0.04494418788054701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05261041988095992</v>
+        <v>0.06331691170029945</v>
       </c>
       <c r="C7">
-        <v>0.05135154356980304</v>
+        <v>-0.001487458932417471</v>
       </c>
       <c r="D7">
-        <v>-0.02607562835449793</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05210512161019463</v>
+      </c>
+      <c r="E7">
+        <v>-0.008954525673295083</v>
+      </c>
+      <c r="F7">
+        <v>0.04757696669806984</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.03861469292544502</v>
+        <v>0.05709997525907751</v>
       </c>
       <c r="C8">
-        <v>0.05262528076296844</v>
+        <v>-0.01344658743421875</v>
       </c>
       <c r="D8">
-        <v>0.005413123432016901</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03290376438783599</v>
+      </c>
+      <c r="E8">
+        <v>-0.01740046312408966</v>
+      </c>
+      <c r="F8">
+        <v>-0.02785222963368301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.07631816426001718</v>
+        <v>0.07136598897292888</v>
       </c>
       <c r="C9">
-        <v>0.05417787867924218</v>
+        <v>0.01072817872567794</v>
       </c>
       <c r="D9">
-        <v>-0.04390241767644116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.0862634666382657</v>
+      </c>
+      <c r="E9">
+        <v>-0.02240661265413353</v>
+      </c>
+      <c r="F9">
+        <v>0.04727740224631183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.03735744842628271</v>
+        <v>0.09414828399578887</v>
       </c>
       <c r="C10">
-        <v>0.02285759688830276</v>
+        <v>0.02097609011236364</v>
       </c>
       <c r="D10">
-        <v>0.1358455469100015</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1691740201045316</v>
+      </c>
+      <c r="E10">
+        <v>0.03496547096358887</v>
+      </c>
+      <c r="F10">
+        <v>-0.05369203710350644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08478306169754325</v>
+        <v>0.08777124311340001</v>
       </c>
       <c r="C11">
-        <v>0.06184595496439056</v>
+        <v>0.01062162202305281</v>
       </c>
       <c r="D11">
-        <v>-0.07560929253960208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1168869247290147</v>
+      </c>
+      <c r="E11">
+        <v>-0.04605356286553112</v>
+      </c>
+      <c r="F11">
+        <v>0.02124068723992474</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.08881851279620148</v>
+        <v>0.09223327995080281</v>
       </c>
       <c r="C12">
-        <v>0.06825515967979874</v>
+        <v>0.007894012182236785</v>
       </c>
       <c r="D12">
-        <v>-0.07810795458765896</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1318794041420498</v>
+      </c>
+      <c r="E12">
+        <v>-0.04742438360692791</v>
+      </c>
+      <c r="F12">
+        <v>0.02802915798361222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.0316272631788179</v>
+        <v>0.04214150334533221</v>
       </c>
       <c r="C13">
-        <v>0.02235590513815094</v>
+        <v>0.002940946220113307</v>
       </c>
       <c r="D13">
-        <v>-0.02996454091154685</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05278845064103929</v>
+      </c>
+      <c r="E13">
+        <v>0.00760842819617989</v>
+      </c>
+      <c r="F13">
+        <v>0.002189098668451009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02662221909883021</v>
+        <v>0.02270639561419232</v>
       </c>
       <c r="C14">
-        <v>0.006035415001682379</v>
+        <v>0.01355468420712379</v>
       </c>
       <c r="D14">
-        <v>-0.01587328970437382</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03327827091669229</v>
+      </c>
+      <c r="E14">
+        <v>-0.01734569449961847</v>
+      </c>
+      <c r="F14">
+        <v>0.01521846882776651</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03138611852404576</v>
+        <v>0.0331285947595206</v>
       </c>
       <c r="C15">
-        <v>0.02001673096465249</v>
+        <v>0.004809923583595479</v>
       </c>
       <c r="D15">
-        <v>-0.01102274974721472</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04491415340633556</v>
+      </c>
+      <c r="E15">
+        <v>-0.005512532978658742</v>
+      </c>
+      <c r="F15">
+        <v>0.02320399091317732</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07331716790522382</v>
+        <v>0.07459631477034756</v>
       </c>
       <c r="C16">
-        <v>0.06380615614771074</v>
+        <v>0.001478257577936719</v>
       </c>
       <c r="D16">
-        <v>-0.07094972557600313</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1265383879208336</v>
+      </c>
+      <c r="E16">
+        <v>-0.06162595966041325</v>
+      </c>
+      <c r="F16">
+        <v>0.02475705491043281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03319943367385583</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003541759368609301</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01826885566438261</v>
+      </c>
+      <c r="E18">
+        <v>0.007454726122182249</v>
+      </c>
+      <c r="F18">
+        <v>-0.007290050646622259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.04980810887158098</v>
+        <v>0.06115796383289737</v>
       </c>
       <c r="C20">
-        <v>0.04092163368151258</v>
+        <v>0.0001917118155604828</v>
       </c>
       <c r="D20">
-        <v>-0.02468757998106975</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07709449163020322</v>
+      </c>
+      <c r="E20">
+        <v>-0.05501821535798458</v>
+      </c>
+      <c r="F20">
+        <v>0.02414663887523109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.03256318694704392</v>
+        <v>0.04084534791245936</v>
       </c>
       <c r="C21">
-        <v>0.01718383212250705</v>
+        <v>0.006685446786977031</v>
       </c>
       <c r="D21">
-        <v>-0.007258525950556616</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03698027970296654</v>
+      </c>
+      <c r="E21">
+        <v>0.005020227367259805</v>
+      </c>
+      <c r="F21">
+        <v>-0.02476077951168173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.02134100545735358</v>
+        <v>0.04311853860665197</v>
       </c>
       <c r="C22">
-        <v>0.01892976667938844</v>
+        <v>0.0008794114616269962</v>
       </c>
       <c r="D22">
-        <v>0.02306415152555275</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.005526641474750993</v>
+      </c>
+      <c r="E22">
+        <v>-0.03270717040267152</v>
+      </c>
+      <c r="F22">
+        <v>-0.04140297040303768</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.02131733877586198</v>
+        <v>0.04311011020629244</v>
       </c>
       <c r="C23">
-        <v>0.01891222434794447</v>
+        <v>0.0008758672654173367</v>
       </c>
       <c r="D23">
-        <v>0.02307944589334602</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.005541847104418691</v>
+      </c>
+      <c r="E23">
+        <v>-0.03291581742663716</v>
+      </c>
+      <c r="F23">
+        <v>-0.04136674581705468</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07829622660806321</v>
+        <v>0.08043639095473415</v>
       </c>
       <c r="C24">
-        <v>0.0679055598408342</v>
+        <v>0.00194251012937753</v>
       </c>
       <c r="D24">
-        <v>-0.07867319814649494</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1216969630164524</v>
+      </c>
+      <c r="E24">
+        <v>-0.04924423976946477</v>
+      </c>
+      <c r="F24">
+        <v>0.02616109010402575</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08028546703886262</v>
+        <v>0.08492733934799464</v>
       </c>
       <c r="C25">
-        <v>0.0656182752459646</v>
+        <v>0.004408875757746984</v>
       </c>
       <c r="D25">
-        <v>-0.08161721975816957</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1095197505092549</v>
+      </c>
+      <c r="E25">
+        <v>-0.0321668061999341</v>
+      </c>
+      <c r="F25">
+        <v>0.02656408991726267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.0478306579480281</v>
+        <v>0.05783318925016588</v>
       </c>
       <c r="C26">
-        <v>0.02184041182585057</v>
+        <v>0.01425379004708585</v>
       </c>
       <c r="D26">
-        <v>-0.006021644131362247</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04035234674891665</v>
+      </c>
+      <c r="E26">
+        <v>-0.02726464221353799</v>
+      </c>
+      <c r="F26">
+        <v>-0.006423831859167169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.06370548421809406</v>
+        <v>0.140333725125857</v>
       </c>
       <c r="C28">
-        <v>0.05560143413572908</v>
+        <v>0.02069258155166196</v>
       </c>
       <c r="D28">
-        <v>0.2496000012874187</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2619734825354501</v>
+      </c>
+      <c r="E28">
+        <v>0.06767776751877119</v>
+      </c>
+      <c r="F28">
+        <v>0.009341812776375106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.0248946847750635</v>
+        <v>0.02730196959511282</v>
       </c>
       <c r="C29">
-        <v>0.0101665213969402</v>
+        <v>0.008321226355715526</v>
       </c>
       <c r="D29">
-        <v>-0.006767818538114045</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03153850933416097</v>
+      </c>
+      <c r="E29">
+        <v>-0.01119059052689479</v>
+      </c>
+      <c r="F29">
+        <v>-0.01117692053047144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.07950591723058659</v>
+        <v>0.06082234010459279</v>
       </c>
       <c r="C30">
-        <v>0.07015713569037978</v>
+        <v>0.003449350108200419</v>
       </c>
       <c r="D30">
-        <v>-0.04148030468912858</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08801435005942194</v>
+      </c>
+      <c r="E30">
+        <v>-0.01854481147095693</v>
+      </c>
+      <c r="F30">
+        <v>0.08103696190948821</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03458623641311274</v>
+        <v>0.05023151372572697</v>
       </c>
       <c r="C31">
-        <v>0.01042113795765725</v>
+        <v>0.01518906291952346</v>
       </c>
       <c r="D31">
-        <v>-0.01560977842755648</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02477610025503462</v>
+      </c>
+      <c r="E31">
+        <v>-0.0276006339272027</v>
+      </c>
+      <c r="F31">
+        <v>-0.002037656937005418</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.03745383491012438</v>
+        <v>0.04995381644452149</v>
       </c>
       <c r="C32">
-        <v>0.03550903613257814</v>
+        <v>-0.001778187621829393</v>
       </c>
       <c r="D32">
-        <v>-0.006161836442243559</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03673001225282254</v>
+      </c>
+      <c r="E32">
+        <v>-0.03163695919733116</v>
+      </c>
+      <c r="F32">
+        <v>0.003867566419351203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.08574498116813914</v>
+        <v>0.09004626025893343</v>
       </c>
       <c r="C33">
-        <v>0.0692397879516813</v>
+        <v>0.007465329261524548</v>
       </c>
       <c r="D33">
-        <v>-0.05113773109983626</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.09990035928853871</v>
+      </c>
+      <c r="E33">
+        <v>-0.04405023804784807</v>
+      </c>
+      <c r="F33">
+        <v>0.03557776609131971</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.07709184818911753</v>
+        <v>0.067982965116814</v>
       </c>
       <c r="C34">
-        <v>0.05721138167223914</v>
+        <v>0.01036945169738199</v>
       </c>
       <c r="D34">
-        <v>-0.07352367511345846</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1081275255703157</v>
+      </c>
+      <c r="E34">
+        <v>-0.03459041022881699</v>
+      </c>
+      <c r="F34">
+        <v>0.0323465062228285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01659235531255404</v>
+        <v>0.02457716343667044</v>
       </c>
       <c r="C35">
-        <v>0.01334949447744187</v>
+        <v>0.002389886254573559</v>
       </c>
       <c r="D35">
-        <v>-0.003687572022687993</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01140858071935246</v>
+      </c>
+      <c r="E35">
+        <v>-0.0115698581046151</v>
+      </c>
+      <c r="F35">
+        <v>0.0003143462952586106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01744786653256666</v>
+        <v>0.02787566196543003</v>
       </c>
       <c r="C36">
-        <v>0.003234769845656061</v>
+        <v>0.007004610126331215</v>
       </c>
       <c r="D36">
-        <v>-0.0276474621080901</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03922976827975968</v>
+      </c>
+      <c r="E36">
+        <v>-0.01616983896907345</v>
+      </c>
+      <c r="F36">
+        <v>0.01486398181282276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0002760524770044507</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0001221331836553102</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.0002082092808306699</v>
+      </c>
+      <c r="E37">
+        <v>0.0004512521735332539</v>
+      </c>
+      <c r="F37">
+        <v>0.0007544266217755484</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.001636215207855882</v>
+        <v>0.001112233420067647</v>
       </c>
       <c r="C38">
-        <v>0.001496327816290491</v>
+        <v>0.0001871021035847158</v>
       </c>
       <c r="D38">
-        <v>0.00191763639737148</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0005254377153306901</v>
+      </c>
+      <c r="E38">
+        <v>-0.0001018873669713431</v>
+      </c>
+      <c r="F38">
+        <v>-0.0008455254893052307</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1139940234574551</v>
+        <v>0.105353471819401</v>
       </c>
       <c r="C39">
-        <v>0.08393426845468782</v>
+        <v>0.01589555098511915</v>
       </c>
       <c r="D39">
-        <v>-0.1163389095318851</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1537378739307506</v>
+      </c>
+      <c r="E39">
+        <v>-0.05843702678714392</v>
+      </c>
+      <c r="F39">
+        <v>0.03005238592415837</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02458859372117546</v>
+        <v>0.04248956849917651</v>
       </c>
       <c r="C40">
-        <v>0.01115428799537826</v>
+        <v>0.006914834559788777</v>
       </c>
       <c r="D40">
-        <v>0.01173863255192816</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03158947817081143</v>
+      </c>
+      <c r="E40">
+        <v>-0.003093208926336894</v>
+      </c>
+      <c r="F40">
+        <v>-0.01593067373832431</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02014201412531902</v>
+        <v>0.0280396685652489</v>
       </c>
       <c r="C41">
-        <v>0.008735747921077902</v>
+        <v>0.006923616824023462</v>
       </c>
       <c r="D41">
-        <v>0.006053394302087202</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.009854894705976461</v>
+      </c>
+      <c r="E41">
+        <v>-0.01238120201943662</v>
+      </c>
+      <c r="F41">
+        <v>-0.006289539493883227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.02244590081394155</v>
+        <v>0.04062739076411635</v>
       </c>
       <c r="C43">
-        <v>0.009203999213035607</v>
+        <v>0.006936087446607209</v>
       </c>
       <c r="D43">
-        <v>-0.006139646116217332</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01911788714159741</v>
+      </c>
+      <c r="E43">
+        <v>-0.02440844357385442</v>
+      </c>
+      <c r="F43">
+        <v>-0.01308095538253395</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.09403688760358414</v>
+        <v>0.0799020966710899</v>
       </c>
       <c r="C44">
-        <v>0.05922836441434467</v>
+        <v>0.01975873010584637</v>
       </c>
       <c r="D44">
-        <v>-0.04431530575564693</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09732427526878351</v>
+      </c>
+      <c r="E44">
+        <v>-0.0631798419987636</v>
+      </c>
+      <c r="F44">
+        <v>0.1561025656150068</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.007208686307253014</v>
+        <v>0.02275795757214798</v>
       </c>
       <c r="C46">
-        <v>0.0003414684516302878</v>
+        <v>0.003485216854119765</v>
       </c>
       <c r="D46">
-        <v>0.002505076123726961</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01285369503958943</v>
+      </c>
+      <c r="E46">
+        <v>-0.02178976698534654</v>
+      </c>
+      <c r="F46">
+        <v>-0.006900596661195711</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.03311715894375877</v>
+        <v>0.05179457366965457</v>
       </c>
       <c r="C47">
-        <v>0.02496114501256502</v>
+        <v>0.003262760175772655</v>
       </c>
       <c r="D47">
-        <v>0.0276526059849714</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01373395082449357</v>
+      </c>
+      <c r="E47">
+        <v>-0.02402416453642879</v>
+      </c>
+      <c r="F47">
+        <v>-0.03253157031513607</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.03990078634505066</v>
+        <v>0.05006544698211009</v>
       </c>
       <c r="C48">
-        <v>0.03259284250036933</v>
+        <v>0.002251239559317404</v>
       </c>
       <c r="D48">
-        <v>-0.03155832034105491</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05004870640594957</v>
+      </c>
+      <c r="E48">
+        <v>0.006171054033604358</v>
+      </c>
+      <c r="F48">
+        <v>0.009873010040449087</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1708360271731173</v>
+        <v>0.2008088585474302</v>
       </c>
       <c r="C49">
-        <v>0.1458137734022106</v>
+        <v>0.01895358749822306</v>
       </c>
       <c r="D49">
-        <v>0.03762816553182474</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.006992705058244555</v>
+      </c>
+      <c r="E49">
+        <v>-0.03244988919882627</v>
+      </c>
+      <c r="F49">
+        <v>0.03624842727830339</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03765210046305664</v>
+        <v>0.0505990177246398</v>
       </c>
       <c r="C50">
-        <v>0.0192249310101385</v>
+        <v>0.01103326657077928</v>
       </c>
       <c r="D50">
-        <v>-0.007900107625091812</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02381649028448113</v>
+      </c>
+      <c r="E50">
+        <v>-0.02949622255371912</v>
+      </c>
+      <c r="F50">
+        <v>0.01009993112289999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0006783817541111931</v>
+        <v>0.0004043251377905429</v>
       </c>
       <c r="C51">
-        <v>0.0005771335971350036</v>
+        <v>0.0001112064428635873</v>
       </c>
       <c r="D51">
-        <v>0.0008835354895495588</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0001537234862015583</v>
+      </c>
+      <c r="E51">
+        <v>-0.0001586927855674064</v>
+      </c>
+      <c r="F51">
+        <v>0.0009788541042328801</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1266859957421473</v>
+        <v>0.1464540252550404</v>
       </c>
       <c r="C52">
-        <v>0.106494774623069</v>
+        <v>0.01625808301750507</v>
       </c>
       <c r="D52">
-        <v>-0.0300923558829675</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.0433064909034432</v>
+      </c>
+      <c r="E52">
+        <v>-0.01963956592514374</v>
+      </c>
+      <c r="F52">
+        <v>0.042228504676713</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1383570440659951</v>
+        <v>0.1716242762860352</v>
       </c>
       <c r="C53">
-        <v>0.1175733077996315</v>
+        <v>0.01926952229530361</v>
       </c>
       <c r="D53">
-        <v>0.002778739092743079</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.005800001944132518</v>
+      </c>
+      <c r="E53">
+        <v>-0.03106015599657995</v>
+      </c>
+      <c r="F53">
+        <v>0.07290003745864354</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.03067590232177461</v>
+        <v>0.02217933566399004</v>
       </c>
       <c r="C54">
-        <v>0.01399695712308005</v>
+        <v>0.01207372848418762</v>
       </c>
       <c r="D54">
-        <v>-0.00646099222896735</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03423271601642825</v>
+      </c>
+      <c r="E54">
+        <v>-0.01813392424081475</v>
+      </c>
+      <c r="F54">
+        <v>-0.004165413550553792</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08749414987653767</v>
+        <v>0.1140930148532651</v>
       </c>
       <c r="C55">
-        <v>0.06773439938155895</v>
+        <v>0.01679834719506086</v>
       </c>
       <c r="D55">
-        <v>0.006933133434588768</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.00839623272611755</v>
+      </c>
+      <c r="E55">
+        <v>-0.02709367869023299</v>
+      </c>
+      <c r="F55">
+        <v>0.04784462464727937</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.133930750644402</v>
+        <v>0.1766365795968931</v>
       </c>
       <c r="C56">
-        <v>0.115952264247214</v>
+        <v>0.01695092714816786</v>
       </c>
       <c r="D56">
-        <v>0.01582748953960006</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0007068749990561214</v>
+      </c>
+      <c r="E56">
+        <v>-0.03471178366848186</v>
+      </c>
+      <c r="F56">
+        <v>0.05166329662503015</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.03642295681006404</v>
+        <v>0.04603815705562175</v>
       </c>
       <c r="C58">
-        <v>0.02641362362802181</v>
+        <v>0.0002402236054698544</v>
       </c>
       <c r="D58">
-        <v>-0.03525776615111233</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.06817145984287114</v>
+      </c>
+      <c r="E58">
+        <v>-0.02745042359088707</v>
+      </c>
+      <c r="F58">
+        <v>-0.03601062241230354</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.09025075161085958</v>
+        <v>0.168159697917966</v>
       </c>
       <c r="C59">
-        <v>0.07843499190653742</v>
+        <v>0.02129942651259502</v>
       </c>
       <c r="D59">
-        <v>0.2255189760207345</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2191744602437573</v>
+      </c>
+      <c r="E59">
+        <v>0.04629051443356412</v>
+      </c>
+      <c r="F59">
+        <v>-0.03605804753611858</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.186088949904002</v>
+        <v>0.2318064489999186</v>
       </c>
       <c r="C60">
-        <v>0.1896479858972926</v>
+        <v>-0.002647233680055175</v>
       </c>
       <c r="D60">
-        <v>-0.01632840914765</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04207891443387578</v>
+      </c>
+      <c r="E60">
+        <v>-0.01190932115503355</v>
+      </c>
+      <c r="F60">
+        <v>-0.005752353421061606</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.09640197552966255</v>
+        <v>0.08163464810742729</v>
       </c>
       <c r="C61">
-        <v>0.07528299911398594</v>
+        <v>0.01173316389790467</v>
       </c>
       <c r="D61">
-        <v>-0.06660859385482618</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1170883767023284</v>
+      </c>
+      <c r="E61">
+        <v>-0.03841438303708775</v>
+      </c>
+      <c r="F61">
+        <v>0.01173727056304332</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1343678524578353</v>
+        <v>0.1694403843945701</v>
       </c>
       <c r="C62">
-        <v>0.1120377884969515</v>
+        <v>0.02019764713926268</v>
       </c>
       <c r="D62">
-        <v>0.01275176257341857</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.006156356181602597</v>
+      </c>
+      <c r="E62">
+        <v>-0.03374899975829196</v>
+      </c>
+      <c r="F62">
+        <v>0.03381004111244006</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.03813148835843109</v>
+        <v>0.04593483498200992</v>
       </c>
       <c r="C63">
-        <v>0.0307603892671518</v>
+        <v>0.001882366559785989</v>
       </c>
       <c r="D63">
-        <v>-0.03544149319830127</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.05873864009267828</v>
+      </c>
+      <c r="E63">
+        <v>-0.02181056312085298</v>
+      </c>
+      <c r="F63">
+        <v>0.004300664500048181</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.07952633511466006</v>
+        <v>0.1100189183554152</v>
       </c>
       <c r="C64">
-        <v>0.05760943658950354</v>
+        <v>0.01122841467388237</v>
       </c>
       <c r="D64">
-        <v>-0.004762090165437811</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04337859779431228</v>
+      </c>
+      <c r="E64">
+        <v>-0.02399797019877592</v>
+      </c>
+      <c r="F64">
+        <v>0.02637582108921564</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1109321193238032</v>
+        <v>0.147829454037901</v>
       </c>
       <c r="C65">
-        <v>0.06674381832136041</v>
+        <v>0.03278462386619478</v>
       </c>
       <c r="D65">
-        <v>0.03139961334925732</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.0404507065234194</v>
+      </c>
+      <c r="E65">
+        <v>-0.005315756640644007</v>
+      </c>
+      <c r="F65">
+        <v>0.03935119160582006</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1385385284746461</v>
+        <v>0.1247725493358519</v>
       </c>
       <c r="C66">
-        <v>0.1119055909261763</v>
+        <v>0.01399753180409839</v>
       </c>
       <c r="D66">
-        <v>-0.1043564208836702</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1419427469682632</v>
+      </c>
+      <c r="E66">
+        <v>-0.06511378497553857</v>
+      </c>
+      <c r="F66">
+        <v>0.03314641144315747</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.05313808675165958</v>
+        <v>0.06015524717427893</v>
       </c>
       <c r="C67">
-        <v>0.0465835073502845</v>
+        <v>0.003358843118149804</v>
       </c>
       <c r="D67">
-        <v>-0.01878831360434422</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05516582573378596</v>
+      </c>
+      <c r="E67">
+        <v>-0.01735028239890558</v>
+      </c>
+      <c r="F67">
+        <v>-0.03321505141890214</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.05771595838248852</v>
+        <v>0.1159107661223547</v>
       </c>
       <c r="C68">
-        <v>0.0336983293597676</v>
+        <v>0.03153085063982478</v>
       </c>
       <c r="D68">
-        <v>0.2332557356948253</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2603137525220349</v>
+      </c>
+      <c r="E68">
+        <v>0.08632829911595613</v>
+      </c>
+      <c r="F68">
+        <v>0.005781249018443182</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.02918537300563447</v>
+        <v>0.04006779244272855</v>
       </c>
       <c r="C69">
-        <v>0.02689263308026039</v>
+        <v>0.001357685637433764</v>
       </c>
       <c r="D69">
-        <v>0.01161520613081303</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.007015910707552699</v>
+      </c>
+      <c r="E69">
+        <v>-0.02221150399096303</v>
+      </c>
+      <c r="F69">
+        <v>0.001011349191917348</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.005162764704740453</v>
+        <v>0.06627761601951315</v>
       </c>
       <c r="C70">
-        <v>0.03173237672494071</v>
+        <v>-0.02769656396130884</v>
       </c>
       <c r="D70">
-        <v>0.04655160146531574</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02393144250177886</v>
+      </c>
+      <c r="E70">
+        <v>0.03817290123240907</v>
+      </c>
+      <c r="F70">
+        <v>-0.1829587089865021</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.06950332681601798</v>
+        <v>0.1359488756619408</v>
       </c>
       <c r="C71">
-        <v>0.04010490372960778</v>
+        <v>0.03591666521963056</v>
       </c>
       <c r="D71">
-        <v>0.2485905565696885</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2732066703975764</v>
+      </c>
+      <c r="E71">
+        <v>0.09650331012894854</v>
+      </c>
+      <c r="F71">
+        <v>0.01106824841152098</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1120589207010489</v>
+        <v>0.1418287543823566</v>
       </c>
       <c r="C72">
-        <v>0.07692659372368608</v>
+        <v>0.02620245951786083</v>
       </c>
       <c r="D72">
-        <v>0.02661510416762719</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0007934169523324793</v>
+      </c>
+      <c r="E72">
+        <v>-0.03860341014038081</v>
+      </c>
+      <c r="F72">
+        <v>0.03302613823801983</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.1570923316132485</v>
+        <v>0.2015125529644492</v>
       </c>
       <c r="C73">
-        <v>0.1408578044530307</v>
+        <v>0.01229793726087514</v>
       </c>
       <c r="D73">
-        <v>0.03530602662173344</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01754791608095511</v>
+      </c>
+      <c r="E73">
+        <v>-0.0645145117562029</v>
+      </c>
+      <c r="F73">
+        <v>0.03506259813655176</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.08446714631186394</v>
+        <v>0.09450742754443019</v>
       </c>
       <c r="C74">
-        <v>0.06959653195052232</v>
+        <v>0.01326555699632082</v>
       </c>
       <c r="D74">
-        <v>0.001182147515502935</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01706753677555798</v>
+      </c>
+      <c r="E74">
+        <v>-0.04333599124183628</v>
+      </c>
+      <c r="F74">
+        <v>0.05799768018363356</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1177717803827313</v>
+        <v>0.127644774324257</v>
       </c>
       <c r="C75">
-        <v>0.08033464424780627</v>
+        <v>0.02810913845395463</v>
       </c>
       <c r="D75">
-        <v>0.004374691544045576</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03029610427536468</v>
+      </c>
+      <c r="E75">
+        <v>-0.05763896423749325</v>
+      </c>
+      <c r="F75">
+        <v>0.02049129518027553</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0004461854482996338</v>
+        <v>0.0002942700836384857</v>
       </c>
       <c r="C76">
-        <v>0.0003372346155306297</v>
+        <v>9.049710079730872e-05</v>
       </c>
       <c r="D76">
-        <v>0.0006058521283493521</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.0001523104063607204</v>
+      </c>
+      <c r="E76">
+        <v>-0.0001271189539550686</v>
+      </c>
+      <c r="F76">
+        <v>8.424310601075204e-05</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07587690941160161</v>
+        <v>0.08751487238723892</v>
       </c>
       <c r="C77">
-        <v>0.05390305861022997</v>
+        <v>0.008152167221669535</v>
       </c>
       <c r="D77">
-        <v>-0.070814526194479</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1135063237890267</v>
+      </c>
+      <c r="E77">
+        <v>-0.03872180888159419</v>
+      </c>
+      <c r="F77">
+        <v>0.03131962149860298</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1318062516764684</v>
+        <v>0.1009459061199119</v>
       </c>
       <c r="C78">
-        <v>0.06613574203270818</v>
+        <v>0.03972087199016588</v>
       </c>
       <c r="D78">
-        <v>-0.01824828151399451</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1158928880393372</v>
+      </c>
+      <c r="E78">
+        <v>-0.07420716013549201</v>
+      </c>
+      <c r="F78">
+        <v>0.04541294304072549</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1239309531055856</v>
+        <v>0.164263909111125</v>
       </c>
       <c r="C79">
-        <v>0.09346423989789805</v>
+        <v>0.02271744697277382</v>
       </c>
       <c r="D79">
-        <v>0.015730273219692</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01377920484434078</v>
+      </c>
+      <c r="E79">
+        <v>-0.04556474770657198</v>
+      </c>
+      <c r="F79">
+        <v>0.01108193145142664</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.06194684604314546</v>
+        <v>0.08308169525052418</v>
       </c>
       <c r="C80">
-        <v>0.05838189433808789</v>
+        <v>-0.0009256247812204862</v>
       </c>
       <c r="D80">
-        <v>-0.02878665430286798</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05664939071625788</v>
+      </c>
+      <c r="E80">
+        <v>-0.03664926266516146</v>
+      </c>
+      <c r="F80">
+        <v>-0.02141321704977454</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1109451098106193</v>
+        <v>0.120849338231614</v>
       </c>
       <c r="C81">
-        <v>0.0683135362241649</v>
+        <v>0.03206027521866468</v>
       </c>
       <c r="D81">
-        <v>-0.005275165632259837</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01429217754153709</v>
+      </c>
+      <c r="E81">
+        <v>-0.05607472745901471</v>
+      </c>
+      <c r="F81">
+        <v>0.01787656318205206</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1336425659025138</v>
+        <v>0.1656004224516395</v>
       </c>
       <c r="C82">
-        <v>0.1042902453537073</v>
+        <v>0.0244133190480318</v>
       </c>
       <c r="D82">
-        <v>0.002888143603013</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.003994263074389878</v>
+      </c>
+      <c r="E82">
+        <v>-0.02796665289311234</v>
+      </c>
+      <c r="F82">
+        <v>0.08124776806760269</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.05658415929471231</v>
+        <v>0.05978941222612012</v>
       </c>
       <c r="C83">
-        <v>0.04715205160232023</v>
+        <v>0.002864053721273748</v>
       </c>
       <c r="D83">
-        <v>-0.0216271213216618</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05083124286877468</v>
+      </c>
+      <c r="E83">
+        <v>-0.004839606926622519</v>
+      </c>
+      <c r="F83">
+        <v>-0.0299883339336978</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06431793125901664</v>
+        <v>0.05879978102192217</v>
       </c>
       <c r="C84">
-        <v>0.04336924161010984</v>
+        <v>0.01126085150267051</v>
       </c>
       <c r="D84">
-        <v>-0.04189983526925687</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.06344145251995911</v>
+      </c>
+      <c r="E84">
+        <v>-0.006342804598673347</v>
+      </c>
+      <c r="F84">
+        <v>0.004072014104460861</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1146592794178162</v>
+        <v>0.1365759137202311</v>
       </c>
       <c r="C85">
-        <v>0.07752180000772102</v>
+        <v>0.02801740982183772</v>
       </c>
       <c r="D85">
-        <v>0.008643141133891532</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.009450487727728605</v>
+      </c>
+      <c r="E85">
+        <v>-0.0372618766791832</v>
+      </c>
+      <c r="F85">
+        <v>0.04652955393074528</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.05783057688625709</v>
+        <v>0.09527076681844805</v>
       </c>
       <c r="C86">
-        <v>0.05503466431421936</v>
+        <v>-0.005261959996902589</v>
       </c>
       <c r="D86">
-        <v>0.1006029749695433</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03953195968586948</v>
+      </c>
+      <c r="E86">
+        <v>-0.2200709896159641</v>
+      </c>
+      <c r="F86">
+        <v>-0.9078033035875546</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1166809045751819</v>
+        <v>0.09676501859403105</v>
       </c>
       <c r="C87">
-        <v>0.07908932939455741</v>
+        <v>0.02010442295901696</v>
       </c>
       <c r="D87">
-        <v>-0.04585381353126433</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09433945056808736</v>
+      </c>
+      <c r="E87">
+        <v>0.05261612976187949</v>
+      </c>
+      <c r="F87">
+        <v>0.05037779695691023</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.04490907631764906</v>
+        <v>0.0608631241023745</v>
       </c>
       <c r="C88">
-        <v>0.03605781504428572</v>
+        <v>0.002267603514239007</v>
       </c>
       <c r="D88">
-        <v>-0.01308640266209652</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04914973289482252</v>
+      </c>
+      <c r="E88">
+        <v>-0.02409442794694398</v>
+      </c>
+      <c r="F88">
+        <v>0.0135181487441394</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.06139626087164848</v>
+        <v>0.132870269740881</v>
       </c>
       <c r="C89">
-        <v>0.0641928876496569</v>
+        <v>0.01301159979296562</v>
       </c>
       <c r="D89">
-        <v>0.2611784057998771</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2487904893570944</v>
+      </c>
+      <c r="E89">
+        <v>0.0903483008983799</v>
+      </c>
+      <c r="F89">
+        <v>-0.008406379746035326</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.07134759661255921</v>
+        <v>0.1505433480404282</v>
       </c>
       <c r="C90">
-        <v>0.04524575507326718</v>
+        <v>0.03232039061362361</v>
       </c>
       <c r="D90">
-        <v>0.2464737640815171</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2700535941738439</v>
+      </c>
+      <c r="E90">
+        <v>0.1125894519724969</v>
+      </c>
+      <c r="F90">
+        <v>-0.003618738655668051</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.09248938972500428</v>
+        <v>0.120575204773557</v>
       </c>
       <c r="C91">
-        <v>0.07181361969534181</v>
+        <v>0.01919138638144458</v>
       </c>
       <c r="D91">
-        <v>0.03150071634320357</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01408919986798821</v>
+      </c>
+      <c r="E91">
+        <v>-0.05608850396843584</v>
+      </c>
+      <c r="F91">
+        <v>-0.001142689547452187</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.06292742468497869</v>
+        <v>0.1477666199167205</v>
       </c>
       <c r="C92">
-        <v>0.05747144082729819</v>
+        <v>0.02370352750306136</v>
       </c>
       <c r="D92">
-        <v>0.2586414877964822</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2927295482735705</v>
+      </c>
+      <c r="E92">
+        <v>0.1019669189456151</v>
+      </c>
+      <c r="F92">
+        <v>-0.01248788694082979</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.07869365583048876</v>
+        <v>0.151775652540994</v>
       </c>
       <c r="C93">
-        <v>0.05971413215088001</v>
+        <v>0.02797898276974461</v>
       </c>
       <c r="D93">
-        <v>0.262464465476717</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.269050068948765</v>
+      </c>
+      <c r="E93">
+        <v>0.07805011766869839</v>
+      </c>
+      <c r="F93">
+        <v>0.003232891864543877</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1220903815097268</v>
+        <v>0.1299731275838976</v>
       </c>
       <c r="C94">
-        <v>0.08996516198592644</v>
+        <v>0.0248277735023122</v>
       </c>
       <c r="D94">
-        <v>-0.01184697429740827</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04242750368468862</v>
+      </c>
+      <c r="E94">
+        <v>-0.05704438784993021</v>
+      </c>
+      <c r="F94">
+        <v>0.03729167421400933</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.09777101482617027</v>
+        <v>0.1270451566334763</v>
       </c>
       <c r="C95">
-        <v>0.08326943846806374</v>
+        <v>0.003520906894348618</v>
       </c>
       <c r="D95">
-        <v>-0.04632655220422038</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09285495035545037</v>
+      </c>
+      <c r="E95">
+        <v>-0.04692046814288458</v>
+      </c>
+      <c r="F95">
+        <v>-0.008168669231717583</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.6269962521771818</v>
+        <v>0.1072491173041093</v>
       </c>
       <c r="C96">
-        <v>0.7731919273555112</v>
+        <v>-0.9874175082463945</v>
       </c>
       <c r="D96">
-        <v>0.02074592972605385</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.04770853683328544</v>
+      </c>
+      <c r="E96">
+        <v>-0.05498188418500051</v>
+      </c>
+      <c r="F96">
+        <v>0.04195285949024034</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1175176953354657</v>
+        <v>0.1928056403695133</v>
       </c>
       <c r="C97">
-        <v>0.1269951248818235</v>
+        <v>-0.007303563883098686</v>
       </c>
       <c r="D97">
-        <v>0.0770408323840667</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.01703599602249969</v>
+      </c>
+      <c r="E97">
+        <v>-0.01858205749535603</v>
+      </c>
+      <c r="F97">
+        <v>-0.08493064325736142</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.138987964886282</v>
+        <v>0.2044932557207881</v>
       </c>
       <c r="C98">
-        <v>0.1299714690869168</v>
+        <v>0.00688995382308521</v>
       </c>
       <c r="D98">
-        <v>-0.00109948662750433</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01335126632599773</v>
+      </c>
+      <c r="E98">
+        <v>0.08286408072115643</v>
+      </c>
+      <c r="F98">
+        <v>-0.09214671045895682</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.03803585888044564</v>
+        <v>0.05524003110827815</v>
       </c>
       <c r="C99">
-        <v>0.04160976735733764</v>
+        <v>-0.004644311822437967</v>
       </c>
       <c r="D99">
-        <v>-0.008741220755206426</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.0394087957253661</v>
+      </c>
+      <c r="E99">
+        <v>-0.02261302607035199</v>
+      </c>
+      <c r="F99">
+        <v>0.001519069235437257</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.07649512842963635</v>
+        <v>0.1257811323501855</v>
       </c>
       <c r="C100">
-        <v>0.1132821711544797</v>
+        <v>-0.05410910996814797</v>
       </c>
       <c r="D100">
-        <v>-0.6018669848681063</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3438598504485983</v>
+      </c>
+      <c r="E100">
+        <v>0.8880148719081787</v>
+      </c>
+      <c r="F100">
+        <v>-0.1493586734455337</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02460571872536286</v>
+        <v>0.02725782427390437</v>
       </c>
       <c r="C101">
-        <v>0.00991011777991597</v>
+        <v>0.008346213153371</v>
       </c>
       <c r="D101">
-        <v>-0.005914685109205643</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03114066362698243</v>
+      </c>
+      <c r="E101">
+        <v>-0.01056045586673101</v>
+      </c>
+      <c r="F101">
+        <v>-0.01236234568257236</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
